--- a/spreadsheet/macrofree/aoai_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/aoai_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>遵循 Metaprompting 護欄，實現 realible AI</t>
+          <t>遵循 Metaprompting 護欄以獲得合理的 AI</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>考慮使用APIM或 AI central 等解決方案的閘道模式，以實現更好的速率限制、負載均衡、身份驗證和日誌記錄</t>
+          <t>考慮使用APIM的閘道模式或 AI Central 等解決方案，以實現更好的速率限制、負載均衡、身份驗證和日誌記錄</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>建立警報以通知團隊有關事件的通知，例如由對資源執行的操作（例如重新生成其訂閱金閜）創建的活動日誌中的條目或指標閾值（例如一小時內超過 10 的錯誤數）</t>
+          <t>創建警報以通知團隊事件，例如對資源執行的操作（例如重新生成其訂閱密閜）或指標閾值（例如，一小時內超過 10 個錯誤數）創建的活動日誌中的條目</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>監控令牌使用方式，防止由於容量導致服務中斷</t>
+          <t>監控令牌使用方式，以防止因容量而導致服務中斷</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>觀察已處理的推理令牌、生成的完成令牌等指標，監視速率限制</t>
+          <t>觀察已處理的推理令牌、生成的完成令牌等指標監控速率限制</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>如果診斷對你來說還不夠，請考慮在 Azure OpenAI 前面使用閘道（例如 Azure API 管理）來記錄傳入提示和傳出回應（如果允許）</t>
+          <t>為 Azure OpenAI 服務啟用和配置診斷。如果不夠，請考慮在允許的情況下使用 Azure OpenAI 前面的 Azure API 管理等閘道來記錄傳入提示和傳出回應</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>使用基礎結構即代碼部署 Azure OpenAI 服務、模型部署和所有相關資源</t>
+          <t>使用基礎結構即代碼來部署 Azure OpenAI 服務、模型部署和所有相關資源</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra 身份驗證與託管標識（而不是 API 金鑰）配合使用</t>
+          <t>將 Microsoft Entra 身份驗證與託管標識而不是 API 金鑰配合使用</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>使用已知的黃金數據集評估系統的性能/準確性，該數據集具有輸入和正確答案。利用 PromptFlow 中的功能進行評估。</t>
+          <t>使用包含輸入和正確答案的已知黃金數據集評估系統的性能/準確性。利用 PromptFlow 中的功能進行評估。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>評估預配輸送量模型的使用方式</t>
+          <t>評估 Provisioned throughput model （預置輸送量模型） 的使用方式</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>查看和實施 Azure AI 內容安全性</t>
+          <t>查看和實施 Azure AI 內容安全</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>根據令牌數和每分鐘的回應來定義和評估系統的輸送量，並符合要求</t>
+          <t>根據令牌和每分鐘回應定義並評估系統的輸送量，並與需求保持一致</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>通過限制令牌大小、流式處理選項來改善系統的延遲</t>
+          <t>通過限制令牌大小、聊天機器人或對話介面等應用程式的流式傳輸選項來改善系統的延遲。流式處理可以通過以增量方式向使用者提供回應來增強 Azure OpenAI 應用程式的感知性能</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>彈性分離</t>
+          <t>彈性偏析</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>估計彈性需求，以根據優先順序確定同步和批量請求分離。對於高優先順序，使用同步方法，對於低優先順序，首選使用佇列的異步批處理</t>
+          <t>估計彈性需求，以根據優先順序確定同步請求和批處理請求隔離。對於高優先順序，使用同步方法，對於低優先順序，首選使用佇列進行異步批處理</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>根據消費者的估計需求對代幣消費要求進行基準測試。如果使用的是預設輸送量單元部署，請考慮使用 Azure OpenAI 基準測試工具來幫助驗證輸送量</t>
+          <t>根據消費者的估計需求對代幣消費需求進行基準測試。如果使用預配輸送量單位部署，請考慮使用 Azure OpenAI 基準測試工具來説明你驗證輸送量</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>如果您使用的是預設輸送量單位 （PTU），請考慮為溢出請求部署每分鐘令牌 （TPM） 部署。當達到 PTU 限制時，使用閘道將請求路由到 TPM 部署。</t>
+          <t>如果您使用的是預置輸送量單位 （PTU），請考慮為溢出請求部署每分鐘令牌數 （TPM） 部署。當達到 PTU 限制時，使用閘道將請求路由到 TPM 部署。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>為正確的任務選擇正確的模型。選擇在速度、回應質量和輸出複雜性之間做出正確權衡的模型</t>
+          <t>為正確的任務選擇合適的模型。選擇在速度、回應質量和輸出複雜性之間取得適當權衡的模型</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>有一個性能基線，而不進行微調，以瞭解微調是否提高了模型性能</t>
+          <t>具有性能基準，無需微調即可瞭解微調是否提高了模型性能</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>使用閘道模式（如 APIM）實現重試和運行狀況檢查</t>
+          <t>使用像APIM這樣的閘道模式實施重試和健康檢查</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>確保為工作負載提供足夠的 TPM 和 RPM 配額</t>
+          <t>確保有足夠的TPM和RPM配額來處理工作負載</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>查看 HAI 工具包指南中的注意事項，並將這些交互實踐應用於 slution</t>
+          <t>查看 HAI 工具包指南中的注意事項，並將這些交互做法應用於 slution</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>如果採用微調，則跨區域部署單獨的微調模型</t>
+          <t>如果採用微調，請跨區域部署單獨的微調模型</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>定期備份和複製關鍵數據，以確保數據丟失或系統故障時的數據可用性和可恢復性。利用 Azure 的備份和災難恢復服務來保護數據。</t>
+          <t>定期備份和複製關鍵數據，以確保數據可用性和可恢復性，以防數據丟失或系統故障。利用 Azure 的備份和災難恢復服務來保護您的數據。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>應選擇 Azure AI 搜索服務層級以具有 SLA</t>
+          <t>應選擇 Azure AI 搜索服務層以具有 SLA</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2250,7 +2250,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>使用 SSE/磁碟加密和可選的 BYOK 加密來加密用於 RAG 的數據</t>
+          <t>使用 SSE/使用可選 BYOK 加密磁碟加密用於 RAG 的數據</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2342,7 +2342,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>確保對跨數據源傳輸的數據實施 TLS，用於檢索增強生成 （RAG） 和 LLM 通信的 AI 搜索</t>
+          <t>確保對跨數據源傳輸的數據、用於檢索增強生成 （RAG） 的 AI 搜索和 LLM 通信強制執行 TLS</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2388,7 +2388,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>使用 RBAC 管理對 Azure OpenAI 服務的訪問。為使用者分配適當的許可權，並根據其角色和職責限制訪問許可權</t>
+          <t>使用 RBAC 管理對 Azure OpenAI 服務的訪問。為使用者分配適當的許可權，並根據其角色和職責限制訪問</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2434,17 +2434,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>數據遮罩和編輯</t>
+          <t>數據遮罩和修訂</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>實施數據加密、遮罩或編輯技術，以在非生產環境中或出於測試或故障排除目的共用數據時隱藏敏感數據或將其替換為混淆值</t>
+          <t>在非生產環境中或出於測試或故障排除目的共享數據時，實施數據加密、遮罩或修訂技術以隱藏敏感數據或將其替換為模糊處理的值</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2480,7 +2480,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure Defender 來檢測和回應安全威脅，並設置監視和警報機制來識別可疑活動或違規行為。利用 Azure Sentinel 進行高級威脅檢測和回應</t>
+          <t>利用 Azure Defender 檢測和回應安全威脅，並設置監視和警報機制來識別可疑活動或違規行為。利用 Azure Sentinel 進行高級威脅檢測和回應</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-cloud-introduction</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/ai-onboarding</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2526,7 +2526,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>制定數據保留和處置策略，以遵守合規性法規。對不再需要的數據實施安全刪除方法，並維護數據保留和處置活動的審計跟蹤</t>
+          <t>建立數據保留和處置策略以遵守合規性法規。對不再需要的數據實施安全刪除方法，並維護數據保留和處置活動的審計跟蹤</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2618,17 +2618,17 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>數據隱私與合規</t>
+          <t>數據隱私和合規性</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>通過實施隱私控制並獲得數據處理活動所需的同意或許可，確保遵守相關的數據保護法規，例如GDPR或HIPAA。</t>
+          <t>通過實施隱私控制並獲得數據處理活動的必要同意或許可，確保遵守相關的數據保護法規，例如GDPR或HIPAA。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2664,7 +2664,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>對員工進行有關數據安全最佳實踐、安全處理數據的重要性以及與數據洩露相關的潛在風險的教育。鼓勵他們勤奮地遵循數據安全協定。</t>
+          <t>向您的員工介紹數據安全最佳實踐、安全處理數據的重要性以及與數據洩露相關的潛在風險。鼓勵他們認真遵守數據安全協定。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2706,7 +2706,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>將生產數據與開發和測試數據分開。僅在生產中使用真實的敏感數據，並在開發和測試環境中使用匿名或合成數據。</t>
+          <t>將生產數據與開發和測試數據分開。在生產環境中僅使用真實的敏感數據，並在開發和測試環境中使用匿名或合成數據。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2748,7 +2748,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>如果您具有不同級別的數據敏感度，請考慮為每個級別創建單獨的索引。例如，您可以有一個用於常規數據的索引，另一個用於敏感數據的索引，每個索引都由不同的訪問協定管理</t>
+          <t>如果您的資料敏感度級別不同，請考慮為每個級別創建單獨的索引。例如，您可以有一個索引用於一般數據，另一個索引用於敏感數據，每個索引都由不同的訪問協定管理</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2789,12 +2789,12 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>不同實例中的敏感數據</t>
+          <t>單獨實例中的敏感數據</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>認識到從敏感資訊生成的嵌入和向量本身就是敏感的。這些數據應得到與源材料相同的保護措施</t>
+          <t>認識到從敏感資訊生成的嵌入和向量本身就是敏感的。這些數據應採取與源材料相同的保護措施</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2873,7 +2873,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>將 RBAC 應用於具有嵌入和向量的數據存儲，並根據角色的訪問要求確定存取範圍</t>
+          <t>將 RBAC 應用於具有嵌入和向量的數據存儲，並根據角色的訪問要求確定訪問許可權的範圍</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2918,7 +2918,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>為 AI 服務配置專用終結點，以限制網路內的服務訪問</t>
+          <t>為 AI 服務配置專用終端節點，以限制網路內的服務存取</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2963,7 +2963,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3005,7 +3005,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>實施網路分段和訪問控制，將 LLM 應用程式的存取限製為僅授權使用者和系統，並防止橫向行動</t>
+          <t>實施網路分段和訪問控制，以限制只有授權用戶和系統才能訪問 LLM 應用程式，並防止橫向移動</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3052,12 +3052,12 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>代幣優化</t>
+          <t>令牌優化</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>使用提示壓縮工具，如 LLMLingua 或 gprtrim</t>
+          <t>使用 LLMLingua 或 gprtrim 等提示壓縮工具</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3093,7 +3093,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>確保 LLM 應用程式使用的 API 和端點使用身份驗證和授權機制（例如託管標識、API 金鑰或 OAuth）得到適當保護，以防止未經授權的訪問。</t>
+          <t>確保 LLM 應用程式使用的 API 和端點使用身份驗證和授權機制（例如託管身份、API 金鑰或 OAuth）得到適當保護，以防止未經授權的訪問。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3138,7 +3138,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>實施強大的最終使用者身份驗證機制，例如多因素身份驗證，以防止對 LLM 應用程式和相關網路資源的未經授權的訪問</t>
+          <t>實施強大的最終使用者身份驗證機制，例如多因素身份驗證，以防止未經授權訪問 LLM 應用程式和相關網路資源</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3184,7 +3184,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>實施網路監控工具，以檢測和分析網路流量中的任何可疑或惡意活動。啟用日誌記錄以捕獲網路事件，並在發生安全事件時促進取證分析</t>
+          <t>實施網路監控工具，以檢測和分析網路流量是否存在任何可疑或惡意活動。啟用日誌記錄以捕獲網路事件，並在發生安全事件時促進取證分析</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3225,7 +3225,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>進行安全審計和滲透測試，以識別和解決LLM應用程式的網路基礎設施中的任何網路安全弱點或漏洞</t>
+          <t>進行安全審計和滲透測試，以識別和解決 LLM 應用程式網路基礎設施中的任何網路安全弱點或漏洞</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3266,7 +3266,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3311,7 +3311,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3356,7 +3356,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>為了安全起見，建議禁用密鑰訪問（本地身份驗證）。 禁用基於密鑰的訪問后，Microsoft Entra ID 將成為唯一的訪問方法，該方法允許保持最小許可權原則和精細控制。</t>
+          <t>為了安全起見，建議禁用密鑰訪問 （本機身份驗證）。 禁用基於密鑰的訪問后，Microsoft Entra ID 成為唯一的訪問方法，允許保持最小許可權原則和精細控制。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3446,7 +3446,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 安全地存儲和管理密鑰。避免在 LLM 應用程式的代碼中硬編碼或嵌入敏感密鑰，並使用託管標識從 Azure Key Vault 中安全地檢索它們</t>
+          <t>使用 Azure Key Vault 安全地存儲和管理密鑰。避免在 LLM 應用程式的代碼中硬編碼或嵌入敏感密鑰，並使用託管標識從 Azure Key Vault 安全地檢索它們</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3491,7 +3491,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>定期輪換和過期存儲在 Azure Key Vault 中的密鑰，以最大程度地降低未經授權訪問的風險。</t>
+          <t>定期輪換存儲在 Azure Key Vault 中的金鑰並使其過期，以最大限度地降低未經授權訪問的風險。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>代幣優化</t>
+          <t>令牌優化</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>遵循安全編碼做法，以防止常見漏洞，例如注入攻擊、跨網站腳本 （XSS） 或安全配置錯誤</t>
+          <t>遵循安全編碼實踐以防止常見漏洞，例如注入攻擊、跨網站腳本 （XSS） 或安全配置錯誤</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3628,7 +3628,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>設置一個流程來定期更新和修補 LLM 庫和其他系統元件</t>
+          <t>設置一個進程以定期更新和修補 LLM 庫和其他系統元件</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>遵守 Azure OpenAI 或其他 LLM 的使用條款、策略和指南以及允許的用例</t>
+          <t>遵守 Azure OpenAI 或其他 LLM 使用條款、策略和指南以及允許的用例</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3724,12 +3724,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>熟悉成本</t>
+          <t>成本熟悉</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>了解基礎模型和微調模型的成本差異以及令牌步長</t>
+          <t>了解基礎模型和微調模型的成本差異以及代幣步長</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>在可能的情況下，批量請求，以最大程度地減少每次調用的開銷，從而降低總體成本。確保優化批量大小</t>
+          <t>批量請求，以儘可能減少每次調用的開銷，從而降低總體成本。確保優化批量大小</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>設置成本跟蹤系統，用於監視模型使用方式，並使用該資訊來説明通知模型選擇和提示大小</t>
+          <t>設置一個成本跟蹤系統來監控模型使用方式，並使用該資訊來説明通知模型選擇和提示大小</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3862,12 +3862,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>令牌限制</t>
+          <t>Token 限制</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>為每個模型回應的令牌數設置最大限制。優化大小以確保其足夠大以實現有效的回應</t>
+          <t>設置每個模型回應的令牌數量 （max_tokens 和要生成的完成數量）的最大限制。優化大小以確保它足夠大，以便獲得有效的回應</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>AI 搜尋可靠性</t>
+          <t>AI 搜索向量限制</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>查看提供的有關設置 AI 搜索以實現可靠性的指南</t>
+          <t>規劃和管理 AI Search Vector 儲存</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3930,7 +3930,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/search-reliability</t>
+          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3938,7 +3938,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>71ca7da8-cfa9-462a-8594-946da97dc3a2</t>
+          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3954,12 +3954,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>AI 搜索向量限制</t>
+          <t>開發運營</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>規劃和管理 AI 搜索向量存儲</t>
+          <t>確保在您的各種環境中部署Azure OpenAI實例，例如開發、測試和生產支援研發和實驗。應用 LLMOps 實踐來自動化 GenAI 應用程式的生命週期管理</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3976,7 +3976,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/search/vector-search-index-size?tabs=portal-vector-quota</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -3984,7 +3984,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3266b225-86f4-4a16-92bd-ddea8a487cde</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3995,23 +3995,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>成本優化</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>DevOps的</t>
+          <t>成本核算模型</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>應用 LLMOps 實踐來自動化 GenAI 應用程式的生命週期管理</t>
+          <t>評估計費模型的使用方式 - PAYG 與 PTU。從PAYG開始，當生產中的使用量可預測時考慮 PTU，因為它為指定的模型版本提供專用記憶體和計算、預留容量和一致的最大延遲</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4022,7 +4022,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/how-to-end-to-end-llmops-with-prompt-flow?view=azureml-api-2</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4030,7 +4030,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec218</t>
+          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4041,23 +4041,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>成本優化</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>成本核算模型</t>
+          <t>開發運營</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>評估計費模型的使用方式 - PAYG 與 PTU</t>
+          <t>在模型版本之間切換時評估提示和應用程式的品質</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/provisioned-throughput-onboarding#understanding-the-provisioned-throughput-purchase-model</t>
+          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>aa80932c-8ec9-4d1b-a770-26e5e6beba9e</t>
+          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>DevOps的</t>
+          <t>發展</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>在模型版本之間切換時評估提示和應用程式的品質</t>
+          <t>評估、監控和優化您的 GenAI 應用程式，以確保其接地氣、相關性、準確性、連貫性和流暢性等功能</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/ai-azure-ai-services-blog/how-to-control-azure-openai-models/ba-p/4146793</t>
+          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4122,7 +4122,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>e6436b07-36db-455f-9796-03334bdf9cc2</t>
+          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>評估、監控和優化您的 GenAI 應用程式的特性，如接地氣、相關性、準確性、連貫性、流暢性、</t>
+          <t>根據不同的搜索參數評估 Azure AI 搜尋結果</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4158,17 +4158,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/machine-learning/prompt-flow/concept-model-monitoring-generative-ai-evaluation-metrics?view=azureml-api-2</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3418db61-2712-4650-9bb4-7a393a080327</t>
+          <t>294798b1-578b-4219-a46c-eb5443513592</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4189,7 +4185,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>根據不同的搜索參數評估 Azure AI 搜尋結果</t>
+          <t>只有當您嘗試了其他基本方法（如對數據進行提示工程和RAG）時，才能將微調模型視為提高準確性的方法</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4204,13 +4200,17 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>294798b1-578b-4219-a46c-eb5443513592</t>
+          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>只有在嘗試了其他基本方法（如提示工程和RAG處理數據）時，才將微調模型視為提高準確性的方法</t>
+          <t>使用提示工程技術來提高 LLM 回應的準確性</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4248,7 +4248,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/fine-tuning-considerations</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4256,7 +4256,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>2744293b-b628-4537-a551-19b08e8f5854</t>
+          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4267,17 +4267,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>運營管理</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>發展</t>
+          <t>安全審計和滲透測試</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用提示工程技術來提高 LLM 回應的準確性</t>
+          <t>將您的 GenAI 應用程式納入紅隊</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4294,7 +4294,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/advanced-prompt-engineering?pivots=programming-language-chat-completions</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4302,7 +4302,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>287d9cec-166c-4d07-8af9-b141a898a535</t>
+          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4313,17 +4313,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>安全審計和滲透測試</t>
+          <t>最終用戶反饋</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>紅隊您的 GenAI 應用程式</t>
+          <t>為最終使用者提供 LLM 回應的評分選項並跟蹤這些分數。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4340,7 +4340,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ai-services/openai/concepts/red-teaming</t>
+          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4348,7 +4348,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>e737897e-71ca-47da-acfa-962a1594946d</t>
+          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4364,12 +4364,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>最終用戶反饋</t>
+          <t>微調</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>為最終使用者提供 LLM 回應的評分選項並跟蹤這些分數。</t>
+          <t>按照使用大型數據文件進行微調的指南，並從 Azure Blob 儲存導入數據。通過分段表單上傳時，100 MB 或更大的大檔可能會變得不穩定，因為請求是原子的，無法重試或恢復</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4386,7 +4386,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/haxtoolkit/guideline/encourage-granular-feedback/</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/fine-tuning?tabs=turbo%2Cpython-new&amp;pivots=programming-language-studio#import-training-data-from-azure-blob-store</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>edb117e6-76aa-4f66-aca4-8e5a95f2223e</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4405,23 +4405,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>成本優化</t>
+          <t>運營管理</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>配額管理</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>考慮配額管理做法</t>
+          <t>管理模型部署的速率限制，並監控按使用量付費部署的每分鐘令牌數 （TPM） 和每分鐘請求數 （RPM） 的使用方式</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4432,7 +4432,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/quota?tabs=rest</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4440,7 +4440,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>負載均衡</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>使用負載均衡器解決方案（如基於APIM的閘道）在服務和區域之間平衡負載和容量</t>
+          <t>監控預置託管利用率（如果您使用的是預置輸送量付款模型）</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4486,7 +4486,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4495,221 +4495,598 @@
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr">
+        <is>
+          <t>配額管理</t>
+        </is>
+      </c>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>考慮配額管理做法。對於某些用例，當您的應用程式可以適時地使用額外的容量，或者應用程式本身正在推動調用 Azure OpenAI API 的速率時，請使用動態配額</t>
+        </is>
+      </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="n"/>
+      <c r="H84" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/fasttrack-for-azure/optimizing-azure-openai-a-guide-to-limits-quotas-and-best/ba-p/4076268</t>
+        </is>
+      </c>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>負責任的 AI</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr">
+        <is>
+          <t>內容安全</t>
+        </is>
+      </c>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>調整內容篩檢程式，以最大限度地減少過於激進的篩檢程式造成的誤報</t>
+        </is>
+      </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="n"/>
+      <c r="H85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/content-filters</t>
+        </is>
+      </c>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>治理和安全</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr">
+        <is>
+          <t>金鑰管理</t>
+        </is>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>將客戶管理的金鑰用於上傳到 Azure OpenAI 的微調模型和訓練數據</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="n"/>
+      <c r="H86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/encrypt-data-at-rest</t>
+        </is>
+      </c>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>治理和安全</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr">
+        <is>
+          <t>越獄保護</t>
+        </is>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>實施越獄風險檢測，以保護語言模型部署免受即時注入攻擊</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="n"/>
+      <c r="H87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/content-safety/concepts/jailbreak-detection</t>
+        </is>
+      </c>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>治理和安全</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr">
+        <is>
+          <t>配額耗盡</t>
+        </is>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>使用限制、服務隔離和閘道模式等安全控制措施來防止可能耗盡模型使用配額的攻擊</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="n"/>
+      <c r="H88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/monitor-openai</t>
+        </is>
+      </c>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr">
+        <is>
+          <t>成本估算</t>
+        </is>
+      </c>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>開發成本模型，考慮提示大小。瞭解提示輸入和回應大小以及文本如何轉換為標記有助於創建可行的成本模型</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="n"/>
+      <c r="H89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="B90" s="21" t="inlineStr">
+        <is>
+          <t>型號選擇</t>
+        </is>
+      </c>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>選擇模型時，請考慮模型定價和功能。對於不太複雜的任務（如文本生成或完成任務）和複雜任務（如語言翻譯或內容理解），請考慮使用成本較低的模型。優化成本，同時仍能實現所需的應用程式性能</t>
+        </is>
+      </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/details/cognitive-services/openai-service/</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr">
+        <is>
+          <t>使用優化</t>
+        </is>
+      </c>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>最大限度地利用 Azure OpenAI 價格斷點（如微調）和模型斷點（如圖像生成）以發揮你的優勢。微調按小時收費，使用每小時可用的盡可能多的時間來改善結果，而不會進入下一個計費週期。生成100張圖像的成本與1張圖像的成本相同</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="n"/>
+      <c r="H91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr">
+        <is>
+          <t>使用優化</t>
+        </is>
+      </c>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>當不再使用未使用的微調模型時，將其刪除，以避免產生持續的託管費用</t>
+        </is>
+      </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>成本優化</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>令牌優化</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>創建簡潔的提示，為模型提供足夠的上下文以生成有用的回應。此外，請確保優化回應長度的限制。</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/openai/how-to/manage-costs</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>運營管理</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>IAC</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>使用基礎結構即代碼 （IaC） 部署 Azure OpenAI、模型部署和微調模型所需的其他基礎結構</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ai-services/create-account-bicep</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>運營管理</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>負載均衡</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>使用負載均衡器解決方案（如基於APIM的閘道）跨服務和區域平衡負載和容量</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/aoai-apim/blob/main/README.md</t>
+        </is>
+      </c>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>運營管理</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>發展</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>考慮為每個消費者組使用專用模型部署，以提供每個模型的使用隔離，這有助於防止消費者組之間出現嘈雜的鄰居</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/multitenant/service/openai</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>2744293b-b628-4537-a551-19b08e8f5855</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
@@ -7971,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F84" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8077,7 +8454,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -8104,7 +8481,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -8131,7 +8508,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8148,7 +8525,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>治理與安全</t>
+          <t>治理和安全</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -8165,7 +8542,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
